--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0</v>

--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -24,9 +24,6 @@
     <t>Nguyễn Ngọc Anh</t>
   </si>
   <si>
-    <t>P202</t>
-  </si>
-  <si>
     <t>24/5/2020</t>
   </si>
   <si>
@@ -45,10 +42,13 @@
     <t>Paxh</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
     <t>NewKH</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
   </si>
 </sst>
 </file>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,10 +385,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -398,15 +398,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>440000</v>
@@ -427,21 +427,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>300000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -49,6 +49,48 @@
   </si>
   <si>
     <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P204</t>
+  </si>
+  <si>
+    <t>P205</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P207</t>
+  </si>
+  <si>
+    <t>Fanta</t>
   </si>
 </sst>
 </file>
@@ -369,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +488,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -462,6 +504,546 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>300000</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>15000</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195">
         <v>0</v>
       </c>
     </row>

--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Fanta</t>
+  </si>
+  <si>
+    <t>Aqua</t>
   </si>
 </sst>
 </file>
@@ -413,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,8 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>SUM(D4:D13)</f>
+        <v>2685000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,9 +465,74 @@
       <c r="B4">
         <v>440000</v>
       </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f>C4*B4</f>
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>15000</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D13" si="0">C5*B5</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -491,6 +560,7 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <f>SUM(D17:D26)</f>
         <v>0</v>
       </c>
     </row>
@@ -531,6 +601,7 @@
         <v>5</v>
       </c>
       <c r="D29">
+        <f>SUM(D30:D39)</f>
         <v>0</v>
       </c>
     </row>
@@ -571,7 +642,8 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <f>SUM(D43:D52)</f>
+        <v>945000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,6 +703,7 @@
         <v>8</v>
       </c>
       <c r="D55">
+        <f>SUM(D56:D65)</f>
         <v>0</v>
       </c>
     </row>
@@ -671,6 +744,7 @@
         <v>8</v>
       </c>
       <c r="D68">
+        <f>SUM(D69:D78)</f>
         <v>0</v>
       </c>
     </row>
@@ -711,6 +785,7 @@
         <v>8</v>
       </c>
       <c r="D81">
+        <f>SUM(D82:D91)</f>
         <v>0</v>
       </c>
     </row>
@@ -751,6 +826,7 @@
         <v>8</v>
       </c>
       <c r="D94">
+        <f>SUM(D95:D104)</f>
         <v>0</v>
       </c>
     </row>
@@ -791,6 +867,7 @@
         <v>8</v>
       </c>
       <c r="D107">
+        <f>SUM(D108:D117)</f>
         <v>0</v>
       </c>
     </row>
@@ -831,6 +908,7 @@
         <v>8</v>
       </c>
       <c r="D120">
+        <f>SUM(D121:D130)</f>
         <v>0</v>
       </c>
     </row>
@@ -871,6 +949,7 @@
         <v>8</v>
       </c>
       <c r="D133">
+        <f>SUM(D134:D143)</f>
         <v>0</v>
       </c>
     </row>
@@ -911,6 +990,7 @@
         <v>8</v>
       </c>
       <c r="D146">
+        <f>SUM(D147:D156)</f>
         <v>0</v>
       </c>
     </row>
@@ -951,6 +1031,7 @@
         <v>8</v>
       </c>
       <c r="D159">
+        <f>SUM(D160:D169)</f>
         <v>0</v>
       </c>
     </row>
@@ -991,6 +1072,7 @@
         <v>8</v>
       </c>
       <c r="D172">
+        <f>SUM(D173:D182)</f>
         <v>0</v>
       </c>
     </row>
@@ -1031,6 +1113,7 @@
         <v>8</v>
       </c>
       <c r="D185">
+        <f>SUM(D186:D195)</f>
         <v>0</v>
       </c>
     </row>

--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -19,48 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NewKH</t>
   </si>
   <si>
-    <t>cọc 400000,lấy hoá đơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Anh</t>
+    <t/>
   </si>
   <si>
     <t>P101</t>
   </si>
   <si>
-    <t>24/05/2020</t>
-  </si>
-  <si>
-    <t>Phòng Nghỉ</t>
-  </si>
-  <si>
-    <t>Aqua</t>
-  </si>
-  <si>
-    <t>Đào</t>
-  </si>
-  <si>
-    <t>Bia</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Paxh</t>
+    <t>Phòng nghỉ</t>
   </si>
   <si>
     <t>P102</t>
-  </si>
-  <si>
-    <t>24/5/2020</t>
   </si>
   <si>
     <t>P103</t>
@@ -69,13 +42,22 @@
     <t>P104</t>
   </si>
   <si>
-    <t>Fanta</t>
+    <t>Haha ok</t>
   </si>
   <si>
     <t>P105</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>P106</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>Paxh</t>
   </si>
   <si>
     <t>P107</t>
@@ -90,7 +72,13 @@
     <t>P202</t>
   </si>
   <si>
+    <t>03/06/2020 12:00:00 SA</t>
+  </si>
+  <si>
     <t>P203</t>
+  </si>
+  <si>
+    <t>04/06/2020 12:00:00 SA</t>
   </si>
   <si>
     <t>P204</t>
@@ -139,11 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,68 +432,73 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
         <f>SUM(D4:D13)</f>
-        <v>2685000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <f>C4*B4</f>
-        <v>2640000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <f ref="D5:D13" t="shared" si="0">C5*B5</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <f t="shared" si="0"/>
@@ -515,13 +507,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
         <f t="shared" si="0"/>
@@ -530,7 +522,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -545,7 +537,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -560,7 +552,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -575,7 +567,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -590,7 +582,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -605,7 +597,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -623,23 +615,29 @@
         <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0">
         <f>SUM(D17:D26)</f>
@@ -648,14 +646,151 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <f>C17*B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <f ref="D18:D26" t="shared" si="1">C18*B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
       <c r="D26" s="0">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -664,23 +799,29 @@
         <v>0</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="0">
         <f>SUM(D30:D39)</f>
@@ -689,14 +830,151 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <f ref="D30:D39" t="shared" si="2">C30*B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0</v>
+      </c>
       <c r="D39" s="0">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -705,59 +983,182 @@
         <v>0</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" s="0">
         <f>SUM(D43:D52)</f>
-        <v>945000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" s="0">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>900000</v>
+        <f ref="D43:D52" t="shared" si="3">C43*B43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B44" s="0">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>45000</v>
+        <f t="shared" si="3"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0</v>
+      </c>
       <c r="D52" s="0">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -766,23 +1167,29 @@
         <v>0</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D55" s="0">
         <f>SUM(D56:D65)</f>
@@ -791,14 +1198,151 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0">
+        <f ref="D56:D65" t="shared" si="4">C56*B56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0</v>
+      </c>
+      <c r="D64" s="0">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0</v>
+      </c>
       <c r="D65" s="0">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -807,23 +1351,29 @@
         <v>0</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
+      <c r="D67" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D68" s="0">
         <f>SUM(D69:D78)</f>
@@ -832,14 +1382,151 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0">
+        <f ref="D69:D91" t="shared" si="5">C69*B69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0">
+        <v>0</v>
+      </c>
+      <c r="D74" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0">
+        <v>0</v>
+      </c>
+      <c r="D76" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0">
+        <v>0</v>
+      </c>
+      <c r="D77" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0</v>
+      </c>
       <c r="D78" s="0">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -848,23 +1535,23 @@
         <v>0</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="C80" s="2">
+        <v>43975</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D81" s="0">
         <f>SUM(D82:D91)</f>
@@ -873,14 +1560,151 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B82" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0</v>
+      </c>
+      <c r="D82" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="0">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0</v>
+      </c>
+      <c r="D83" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0</v>
+      </c>
+      <c r="D84" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0</v>
+      </c>
+      <c r="D85" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0</v>
+      </c>
+      <c r="D86" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0</v>
+      </c>
+      <c r="D87" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0</v>
+      </c>
+      <c r="D88" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0</v>
+      </c>
+      <c r="D89" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0</v>
+      </c>
+      <c r="D90" s="0">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0</v>
+      </c>
       <c r="D91" s="0">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -889,23 +1713,23 @@
         <v>0</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43975</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D94" s="0">
         <f>SUM(D95:D104)</f>
@@ -914,14 +1738,151 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B95" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0</v>
+      </c>
+      <c r="D95" s="0">
+        <f ref="D95:D104" t="shared" si="6">C95*B95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0</v>
+      </c>
+      <c r="D96" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0</v>
+      </c>
+      <c r="D97" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0</v>
+      </c>
+      <c r="D98" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0</v>
+      </c>
+      <c r="D99" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0">
+        <v>0</v>
+      </c>
+      <c r="D100" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0</v>
+      </c>
+      <c r="D101" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="0">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0">
+        <v>0</v>
+      </c>
+      <c r="D102" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="0">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0">
+        <v>0</v>
+      </c>
+      <c r="D103" s="0">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="0">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0">
+        <v>0</v>
+      </c>
       <c r="D104" s="0">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -930,23 +1891,23 @@
         <v>0</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C106" s="2">
+        <v>43975</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D107" s="0">
         <f>SUM(D108:D117)</f>
@@ -955,14 +1916,151 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C108" s="0">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0">
+        <f ref="D108:D117" t="shared" si="7">C108*B108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="0">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0">
+        <v>0</v>
+      </c>
+      <c r="D109" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0">
+        <v>0</v>
+      </c>
+      <c r="D110" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0">
+        <v>0</v>
+      </c>
+      <c r="D111" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0">
+        <v>0</v>
+      </c>
+      <c r="D112" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0">
+        <v>0</v>
+      </c>
+      <c r="D113" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="0">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="0">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0">
+        <v>0</v>
+      </c>
+      <c r="D115" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="0">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0">
+        <v>0</v>
+      </c>
+      <c r="D116" s="0">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="0">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0">
+        <v>0</v>
+      </c>
       <c r="D117" s="0">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -971,23 +2069,26 @@
         <v>0</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D120" s="0">
         <f>SUM(D121:D130)</f>
@@ -996,14 +2097,151 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B121" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C121" s="0">
+        <v>0</v>
+      </c>
+      <c r="D121" s="0">
+        <f ref="D121:D130" t="shared" si="8">C121*B121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="0">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0">
+        <v>0</v>
+      </c>
+      <c r="D122" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="0">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0">
+        <v>0</v>
+      </c>
+      <c r="D123" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="0">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0">
+        <v>0</v>
+      </c>
+      <c r="D124" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="0">
+        <v>0</v>
+      </c>
+      <c r="C125" s="0">
+        <v>0</v>
+      </c>
+      <c r="D125" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="0">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0">
+        <v>0</v>
+      </c>
+      <c r="D126" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="0">
+        <v>0</v>
+      </c>
+      <c r="C127" s="0">
+        <v>0</v>
+      </c>
+      <c r="D127" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="0">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0">
+        <v>0</v>
+      </c>
+      <c r="D128" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="0">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0">
+        <v>0</v>
+      </c>
+      <c r="D129" s="0">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="0">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0">
+        <v>0</v>
+      </c>
       <c r="D130" s="0">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1012,23 +2250,29 @@
         <v>0</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D133" s="0">
         <f>SUM(D134:D143)</f>
@@ -1037,14 +2281,151 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B134" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C134" s="0">
+        <v>0</v>
+      </c>
+      <c r="D134" s="0">
+        <f ref="D134:D143" t="shared" si="9">C134*B134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="0">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0">
+        <v>0</v>
+      </c>
+      <c r="D135" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="0">
+        <v>0</v>
+      </c>
+      <c r="C136" s="0">
+        <v>0</v>
+      </c>
+      <c r="D136" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="0">
+        <v>0</v>
+      </c>
+      <c r="C137" s="0">
+        <v>0</v>
+      </c>
+      <c r="D137" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="0">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0">
+        <v>0</v>
+      </c>
+      <c r="D138" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="0">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0">
+        <v>0</v>
+      </c>
+      <c r="D139" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="0">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0">
+        <v>0</v>
+      </c>
+      <c r="D140" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="0">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0">
+        <v>0</v>
+      </c>
+      <c r="D141" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="0">
+        <v>0</v>
+      </c>
+      <c r="C142" s="0">
+        <v>0</v>
+      </c>
+      <c r="D142" s="0">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="0">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0">
+        <v>0</v>
+      </c>
       <c r="D143" s="0">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1053,23 +2434,29 @@
         <v>0</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D146" s="0">
         <f>SUM(D147:D156)</f>
@@ -1078,14 +2465,151 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B147" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C147" s="0">
+        <v>0</v>
+      </c>
+      <c r="D147" s="0">
+        <f ref="D147:D156" t="shared" si="10">C147*B147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="0">
+        <v>0</v>
+      </c>
+      <c r="C148" s="0">
+        <v>0</v>
+      </c>
+      <c r="D148" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="0">
+        <v>0</v>
+      </c>
+      <c r="C149" s="0">
+        <v>0</v>
+      </c>
+      <c r="D149" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="0">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0">
+        <v>0</v>
+      </c>
+      <c r="D150" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="0">
+        <v>0</v>
+      </c>
+      <c r="C151" s="0">
+        <v>0</v>
+      </c>
+      <c r="D151" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="0">
+        <v>0</v>
+      </c>
+      <c r="C152" s="0">
+        <v>0</v>
+      </c>
+      <c r="D152" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="0">
+        <v>0</v>
+      </c>
+      <c r="C153" s="0">
+        <v>0</v>
+      </c>
+      <c r="D153" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="0">
+        <v>0</v>
+      </c>
+      <c r="C154" s="0">
+        <v>0</v>
+      </c>
+      <c r="D154" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="0">
+        <v>0</v>
+      </c>
+      <c r="C155" s="0">
+        <v>0</v>
+      </c>
+      <c r="D155" s="0">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="0">
+        <v>0</v>
+      </c>
+      <c r="C156" s="0">
+        <v>0</v>
+      </c>
       <c r="D156" s="0">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1094,23 +2618,26 @@
         <v>0</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D159" s="0">
         <f>SUM(D160:D169)</f>
@@ -1119,14 +2646,151 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B160" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C160" s="0">
+        <v>0</v>
+      </c>
+      <c r="D160" s="0">
+        <f ref="D160:D169" t="shared" si="11">C160*B160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="0">
+        <v>0</v>
+      </c>
+      <c r="C161" s="0">
+        <v>0</v>
+      </c>
+      <c r="D161" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="0">
+        <v>0</v>
+      </c>
+      <c r="C162" s="0">
+        <v>0</v>
+      </c>
+      <c r="D162" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="0">
+        <v>0</v>
+      </c>
+      <c r="C163" s="0">
+        <v>0</v>
+      </c>
+      <c r="D163" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="0">
+        <v>0</v>
+      </c>
+      <c r="C164" s="0">
+        <v>0</v>
+      </c>
+      <c r="D164" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="0">
+        <v>0</v>
+      </c>
+      <c r="C165" s="0">
+        <v>0</v>
+      </c>
+      <c r="D165" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="0">
+        <v>0</v>
+      </c>
+      <c r="C166" s="0">
+        <v>0</v>
+      </c>
+      <c r="D166" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="0">
+        <v>0</v>
+      </c>
+      <c r="C167" s="0">
+        <v>0</v>
+      </c>
+      <c r="D167" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="0">
+        <v>0</v>
+      </c>
+      <c r="C168" s="0">
+        <v>0</v>
+      </c>
+      <c r="D168" s="0">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="0">
+        <v>0</v>
+      </c>
+      <c r="C169" s="0">
+        <v>0</v>
+      </c>
       <c r="D169" s="0">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1135,23 +2799,29 @@
         <v>0</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D172" s="0">
         <f>SUM(D173:D182)</f>
@@ -1160,14 +2830,151 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B173" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C173" s="0">
+        <v>0</v>
+      </c>
+      <c r="D173" s="0">
+        <f ref="D173:D182" t="shared" si="12">C173*B173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="0">
+        <v>0</v>
+      </c>
+      <c r="C174" s="0">
+        <v>0</v>
+      </c>
+      <c r="D174" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="0">
+        <v>0</v>
+      </c>
+      <c r="C175" s="0">
+        <v>0</v>
+      </c>
+      <c r="D175" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="0">
+        <v>0</v>
+      </c>
+      <c r="C176" s="0">
+        <v>0</v>
+      </c>
+      <c r="D176" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="0">
+        <v>0</v>
+      </c>
+      <c r="C177" s="0">
+        <v>0</v>
+      </c>
+      <c r="D177" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="0">
+        <v>0</v>
+      </c>
+      <c r="C178" s="0">
+        <v>0</v>
+      </c>
+      <c r="D178" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="0">
+        <v>0</v>
+      </c>
+      <c r="C179" s="0">
+        <v>0</v>
+      </c>
+      <c r="D179" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="0">
+        <v>0</v>
+      </c>
+      <c r="C180" s="0">
+        <v>0</v>
+      </c>
+      <c r="D180" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="0">
+        <v>0</v>
+      </c>
+      <c r="C181" s="0">
+        <v>0</v>
+      </c>
+      <c r="D181" s="0">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="0">
+        <v>0</v>
+      </c>
+      <c r="C182" s="0">
+        <v>0</v>
+      </c>
       <c r="D182" s="0">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1176,23 +2983,23 @@
         <v>0</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C184" s="2">
+        <v>43975</v>
       </c>
     </row>
     <row r="185">
       <c r="B185" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D185" s="0">
         <f>SUM(D186:D195)</f>
@@ -1201,22 +3008,157 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B186" s="0">
-        <v>400000</v>
+        <v>0</v>
+      </c>
+      <c r="C186" s="0">
+        <v>0</v>
+      </c>
+      <c r="D186" s="0">
+        <f ref="D186:D195" t="shared" si="13">C186*B186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="0">
+        <v>0</v>
+      </c>
+      <c r="C187" s="0">
+        <v>0</v>
+      </c>
+      <c r="D187" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="0">
+        <v>0</v>
+      </c>
+      <c r="C188" s="0">
+        <v>0</v>
+      </c>
+      <c r="D188" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="0">
+        <v>0</v>
+      </c>
+      <c r="C189" s="0">
+        <v>0</v>
+      </c>
+      <c r="D189" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="0">
+        <v>0</v>
+      </c>
+      <c r="C190" s="0">
+        <v>0</v>
+      </c>
+      <c r="D190" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="0">
+        <v>0</v>
+      </c>
+      <c r="C191" s="0">
+        <v>0</v>
+      </c>
+      <c r="D191" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="0">
+        <v>0</v>
+      </c>
+      <c r="C192" s="0">
+        <v>0</v>
+      </c>
+      <c r="D192" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="0">
+        <v>0</v>
+      </c>
+      <c r="C193" s="0">
+        <v>0</v>
+      </c>
+      <c r="D193" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="0">
+        <v>0</v>
+      </c>
+      <c r="C194" s="0">
+        <v>0</v>
+      </c>
+      <c r="D194" s="0">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="0">
+        <v>0</v>
+      </c>
+      <c r="C195" s="0">
+        <v>0</v>
+      </c>
       <c r="D195" s="0">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NewKH</t>
   </si>
@@ -72,13 +72,10 @@
     <t>P202</t>
   </si>
   <si>
-    <t>03/06/2020 12:00:00 SA</t>
-  </si>
-  <si>
     <t>P203</t>
   </si>
   <si>
-    <t>04/06/2020 12:00:00 SA</t>
+    <t>Alolalalala</t>
   </si>
   <si>
     <t>P204</t>
@@ -413,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,11 +818,11 @@
     </row>
     <row r="29">
       <c r="B29" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="0">
         <f>SUM(D30:D39)</f>
-        <v>0</v>
+        <v>861000</v>
       </c>
     </row>
     <row r="30">
@@ -855,7 +852,7 @@
       </c>
       <c r="D31" s="0">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>861000</v>
       </c>
     </row>
     <row r="32">
@@ -1009,7 +1006,7 @@
       </c>
       <c r="D42" s="0">
         <f>SUM(D43:D52)</f>
-        <v>99000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1039,7 +1036,7 @@
       </c>
       <c r="D44" s="0">
         <f t="shared" si="3"/>
-        <v>99000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2253,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2261,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>1</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="133">
       <c r="B133" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="0">
         <f>SUM(D134:D143)</f>
@@ -2434,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>1</v>
@@ -2445,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>1</v>
@@ -2626,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1</v>
@@ -2810,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>1</v>
@@ -2991,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C184" s="2">
         <v>43975</v>

--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NewKH</t>
   </si>
@@ -27,39 +27,45 @@
     <t/>
   </si>
   <si>
+    <t>04/06/2020 12:00:00 SA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>P101</t>
   </si>
   <si>
-    <t>Phòng nghỉ</t>
+    <t>Phòng Nghỉ</t>
+  </si>
+  <si>
+    <t>cọc 400000,lấy hoá đơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Anh</t>
   </si>
   <si>
     <t>P102</t>
   </si>
   <si>
+    <t>24/05/2020</t>
+  </si>
+  <si>
     <t>P103</t>
   </si>
   <si>
     <t>P104</t>
   </si>
   <si>
-    <t>Haha ok</t>
+    <t>24/05/2020 12:00:00 SA</t>
   </si>
   <si>
     <t>P105</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>P106</t>
   </si>
   <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>Paxh</t>
-  </si>
-  <si>
     <t>P107</t>
   </si>
   <si>
@@ -72,12 +78,12 @@
     <t>P202</t>
   </si>
   <si>
+    <t>08/09/2020 12:00:00 SA</t>
+  </si>
+  <si>
     <t>P203</t>
   </si>
   <si>
-    <t>Alolalalala</t>
-  </si>
-  <si>
     <t>P204</t>
   </si>
   <si>
@@ -85,6 +91,12 @@
   </si>
   <si>
     <t>P206</t>
+  </si>
+  <si>
+    <t>03/08/2020 12:00:00 SA</t>
+  </si>
+  <si>
+    <t>04/06/2020 11:00:00 CH</t>
   </si>
   <si>
     <t>P207</t>
@@ -124,10 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,19 +440,21 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -450,7 +463,7 @@
     </row>
     <row r="3">
       <c r="B3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0">
         <f>SUM(D4:D13)</f>
@@ -459,7 +472,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -468,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <f>C4*B4</f>
+        <f>B4*C4</f>
         <v>0</v>
       </c>
     </row>
@@ -483,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <f ref="D5:D13" t="shared" si="0">C5*B5</f>
+        <f ref="D5:D13" t="shared" si="0">B5*C5</f>
         <v>0</v>
       </c>
     </row>
@@ -593,15 +606,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0</v>
-      </c>
       <c r="D13" s="0">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -611,30 +615,26 @@
       <c r="A14" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0">
         <f>SUM(D17:D26)</f>
@@ -643,149 +643,65 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D17" s="0">
-        <f>C17*B17</f>
+        <f>B17*C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0">
-        <v>0</v>
-      </c>
       <c r="D18" s="0">
-        <f ref="D18:D26" t="shared" si="1">C18*B18</f>
+        <f ref="D18:D26" t="shared" si="1">B18*C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0">
-        <v>0</v>
-      </c>
       <c r="D19" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0">
-        <v>0</v>
-      </c>
       <c r="D20" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0">
-        <v>0</v>
-      </c>
       <c r="D21" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0">
-        <v>0</v>
-      </c>
       <c r="D22" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0">
-        <v>0</v>
-      </c>
       <c r="D23" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0">
-        <v>0</v>
-      </c>
       <c r="D24" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0">
-        <v>0</v>
-      </c>
       <c r="D25" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0">
-        <v>0</v>
-      </c>
       <c r="D26" s="0">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -795,19 +711,20 @@
       <c r="A27" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>1</v>
@@ -822,12 +739,12 @@
       </c>
       <c r="D29" s="0">
         <f>SUM(D30:D39)</f>
-        <v>861000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -836,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <f ref="D30:D39" t="shared" si="2">C30*B30</f>
+        <f>B30*C30</f>
         <v>0</v>
       </c>
     </row>
@@ -851,8 +768,8 @@
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <f t="shared" si="2"/>
-        <v>861000</v>
+        <f ref="D31:D39" t="shared" si="2">B31*C31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -961,15 +878,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="0">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0">
-        <v>0</v>
-      </c>
       <c r="D39" s="0">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -979,11 +887,14 @@
       <c r="A40" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>1</v>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -991,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>1</v>
@@ -1002,7 +913,7 @@
     </row>
     <row r="42">
       <c r="B42" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="0">
         <f>SUM(D43:D52)</f>
@@ -1011,149 +922,65 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" s="0">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D43" s="0">
-        <f ref="D43:D52" t="shared" si="3">C43*B43</f>
+        <f>B43*C43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="0">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0">
-        <v>0</v>
-      </c>
       <c r="D44" s="0">
-        <f t="shared" si="3"/>
+        <f ref="D44:D52" t="shared" si="3">B44*C44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="0">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0">
-        <v>0</v>
-      </c>
       <c r="D45" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="0">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0">
-        <v>0</v>
-      </c>
       <c r="D46" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="0">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0">
-        <v>0</v>
-      </c>
       <c r="D47" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="0">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0">
-        <v>0</v>
-      </c>
       <c r="D48" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="0">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0">
-        <v>0</v>
-      </c>
       <c r="D49" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="0">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0">
-        <v>0</v>
-      </c>
       <c r="D50" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="0">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0">
-        <v>0</v>
-      </c>
       <c r="D51" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="0">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0">
-        <v>0</v>
-      </c>
       <c r="D52" s="0">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1163,11 +990,14 @@
       <c r="A53" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>1</v>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1175,9 +1005,9 @@
         <v>1</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="0" t="s">
@@ -1195,149 +1025,65 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D56" s="0">
-        <f ref="D56:D65" t="shared" si="4">C56*B56</f>
+        <f>B56*C56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="0">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0">
-        <v>0</v>
-      </c>
       <c r="D57" s="0">
-        <f t="shared" si="4"/>
+        <f ref="D57:D65" t="shared" si="4">B57*C57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="0">
-        <v>0</v>
-      </c>
-      <c r="C58" s="0">
-        <v>0</v>
-      </c>
       <c r="D58" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="0">
-        <v>0</v>
-      </c>
-      <c r="C59" s="0">
-        <v>0</v>
-      </c>
       <c r="D59" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="0">
-        <v>0</v>
-      </c>
-      <c r="C60" s="0">
-        <v>0</v>
-      </c>
       <c r="D60" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="0">
-        <v>0</v>
-      </c>
-      <c r="C61" s="0">
-        <v>0</v>
-      </c>
       <c r="D61" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="0">
-        <v>0</v>
-      </c>
-      <c r="C62" s="0">
-        <v>0</v>
-      </c>
       <c r="D62" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="0">
-        <v>0</v>
-      </c>
-      <c r="C63" s="0">
-        <v>0</v>
-      </c>
       <c r="D63" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="0">
-        <v>0</v>
-      </c>
-      <c r="C64" s="0">
-        <v>0</v>
-      </c>
       <c r="D64" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="0">
-        <v>0</v>
-      </c>
-      <c r="C65" s="0">
-        <v>0</v>
-      </c>
       <c r="D65" s="0">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1347,30 +1093,26 @@
       <c r="A66" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68" s="0">
         <f>SUM(D69:D78)</f>
@@ -1379,149 +1121,65 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" s="0">
-        <v>0</v>
-      </c>
-      <c r="C69" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D69" s="0">
-        <f ref="D69:D91" t="shared" si="5">C69*B69</f>
+        <f>B69*C69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="0">
-        <v>0</v>
-      </c>
-      <c r="C70" s="0">
-        <v>0</v>
-      </c>
       <c r="D70" s="0">
-        <f t="shared" si="5"/>
+        <f ref="D70:D78" t="shared" si="5">B70*C70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="0">
-        <v>0</v>
-      </c>
-      <c r="C71" s="0">
-        <v>0</v>
-      </c>
       <c r="D71" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="0">
-        <v>0</v>
-      </c>
-      <c r="C72" s="0">
-        <v>0</v>
-      </c>
       <c r="D72" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="0">
-        <v>0</v>
-      </c>
-      <c r="C73" s="0">
-        <v>0</v>
-      </c>
       <c r="D73" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="0">
-        <v>0</v>
-      </c>
-      <c r="C74" s="0">
-        <v>0</v>
-      </c>
       <c r="D74" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="0">
-        <v>0</v>
-      </c>
-      <c r="C75" s="0">
-        <v>0</v>
-      </c>
       <c r="D75" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="0">
-        <v>0</v>
-      </c>
-      <c r="C76" s="0">
-        <v>0</v>
-      </c>
       <c r="D76" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="0">
-        <v>0</v>
-      </c>
-      <c r="C77" s="0">
-        <v>0</v>
-      </c>
       <c r="D77" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="0">
-        <v>0</v>
-      </c>
-      <c r="C78" s="0">
-        <v>0</v>
-      </c>
       <c r="D78" s="0">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1531,24 +1189,26 @@
       <c r="A79" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="2">
-        <v>43975</v>
+        <v>15</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" s="0">
         <f>SUM(D82:D91)</f>
@@ -1557,151 +1217,67 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B82" s="0">
-        <v>0</v>
-      </c>
-      <c r="C82" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D82" s="0">
-        <f t="shared" si="5"/>
+        <f>B82*C82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="0">
-        <v>0</v>
-      </c>
-      <c r="C83" s="0">
-        <v>0</v>
-      </c>
       <c r="D83" s="0">
-        <f t="shared" si="5"/>
+        <f ref="D83:D91" t="shared" si="6">B83*C83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="0">
-        <v>0</v>
-      </c>
-      <c r="C84" s="0">
-        <v>0</v>
-      </c>
       <c r="D84" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="0">
-        <v>0</v>
-      </c>
-      <c r="C85" s="0">
-        <v>0</v>
-      </c>
       <c r="D85" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="0">
-        <v>0</v>
-      </c>
-      <c r="C86" s="0">
-        <v>0</v>
-      </c>
       <c r="D86" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="0">
-        <v>0</v>
-      </c>
-      <c r="C87" s="0">
-        <v>0</v>
-      </c>
       <c r="D87" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="0">
-        <v>0</v>
-      </c>
-      <c r="C88" s="0">
-        <v>0</v>
-      </c>
       <c r="D88" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="0">
-        <v>0</v>
-      </c>
-      <c r="C89" s="0">
-        <v>0</v>
-      </c>
       <c r="D89" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="0">
-        <v>0</v>
-      </c>
-      <c r="C90" s="0">
-        <v>0</v>
-      </c>
       <c r="D90" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="0">
-        <v>0</v>
-      </c>
-      <c r="C91" s="0">
-        <v>0</v>
-      </c>
       <c r="D91" s="0">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1709,24 +1285,26 @@
       <c r="A92" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="B92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="2">
-        <v>43975</v>
+        <v>16</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" s="0">
         <f>SUM(D95:D104)</f>
@@ -1735,151 +1313,67 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B95" s="0">
-        <v>0</v>
-      </c>
-      <c r="C95" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D95" s="0">
-        <f ref="D95:D104" t="shared" si="6">C95*B95</f>
+        <f>B95*C95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="0">
-        <v>0</v>
-      </c>
-      <c r="C96" s="0">
-        <v>0</v>
-      </c>
       <c r="D96" s="0">
-        <f t="shared" si="6"/>
+        <f ref="D96:D104" t="shared" si="7">B96*C96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="0">
-        <v>0</v>
-      </c>
-      <c r="C97" s="0">
-        <v>0</v>
-      </c>
       <c r="D97" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="0">
-        <v>0</v>
-      </c>
-      <c r="C98" s="0">
-        <v>0</v>
-      </c>
       <c r="D98" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="0">
-        <v>0</v>
-      </c>
-      <c r="C99" s="0">
-        <v>0</v>
-      </c>
       <c r="D99" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="0">
-        <v>0</v>
-      </c>
-      <c r="C100" s="0">
-        <v>0</v>
-      </c>
       <c r="D100" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="0">
-        <v>0</v>
-      </c>
-      <c r="C101" s="0">
-        <v>0</v>
-      </c>
       <c r="D101" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="0">
-        <v>0</v>
-      </c>
-      <c r="C102" s="0">
-        <v>0</v>
-      </c>
       <c r="D102" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="0">
-        <v>0</v>
-      </c>
-      <c r="C103" s="0">
-        <v>0</v>
-      </c>
       <c r="D103" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="0">
-        <v>0</v>
-      </c>
-      <c r="C104" s="0">
-        <v>0</v>
-      </c>
       <c r="D104" s="0">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1887,24 +1381,26 @@
       <c r="A105" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="2">
-        <v>43975</v>
+        <v>17</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="0">
         <f>SUM(D108:D117)</f>
@@ -1913,151 +1409,67 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B108" s="0">
-        <v>0</v>
-      </c>
-      <c r="C108" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D108" s="0">
-        <f ref="D108:D117" t="shared" si="7">C108*B108</f>
+        <f>B108*C108</f>
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="0">
-        <v>0</v>
-      </c>
-      <c r="C109" s="0">
-        <v>0</v>
-      </c>
       <c r="D109" s="0">
-        <f t="shared" si="7"/>
+        <f ref="D109:D117" t="shared" si="8">B109*C109</f>
         <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="0">
-        <v>0</v>
-      </c>
-      <c r="C110" s="0">
-        <v>0</v>
-      </c>
       <c r="D110" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="0">
-        <v>0</v>
-      </c>
-      <c r="C111" s="0">
-        <v>0</v>
-      </c>
       <c r="D111" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="0">
-        <v>0</v>
-      </c>
-      <c r="C112" s="0">
-        <v>0</v>
-      </c>
       <c r="D112" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="0">
-        <v>0</v>
-      </c>
-      <c r="C113" s="0">
-        <v>0</v>
-      </c>
       <c r="D113" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="0">
-        <v>0</v>
-      </c>
-      <c r="C114" s="0">
-        <v>0</v>
-      </c>
       <c r="D114" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="0">
-        <v>0</v>
-      </c>
-      <c r="C115" s="0">
-        <v>0</v>
-      </c>
       <c r="D115" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="0">
-        <v>0</v>
-      </c>
-      <c r="C116" s="0">
-        <v>0</v>
-      </c>
       <c r="D116" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="0">
-        <v>0</v>
-      </c>
-      <c r="C117" s="0">
-        <v>0</v>
-      </c>
       <c r="D117" s="0">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2065,22 +1477,21 @@
       <c r="A118" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="B118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -2094,151 +1505,67 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B121" s="0">
-        <v>0</v>
-      </c>
-      <c r="C121" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D121" s="0">
-        <f ref="D121:D130" t="shared" si="8">C121*B121</f>
+        <f>B121*C121</f>
         <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="0">
-        <v>0</v>
-      </c>
-      <c r="C122" s="0">
-        <v>0</v>
-      </c>
       <c r="D122" s="0">
-        <f t="shared" si="8"/>
+        <f ref="D122:D130" t="shared" si="9">B122*C122</f>
         <v>0</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="0">
-        <v>0</v>
-      </c>
-      <c r="C123" s="0">
-        <v>0</v>
-      </c>
       <c r="D123" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="0">
-        <v>0</v>
-      </c>
-      <c r="C124" s="0">
-        <v>0</v>
-      </c>
       <c r="D124" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="0">
-        <v>0</v>
-      </c>
-      <c r="C125" s="0">
-        <v>0</v>
-      </c>
       <c r="D125" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="0">
-        <v>0</v>
-      </c>
-      <c r="C126" s="0">
-        <v>0</v>
-      </c>
       <c r="D126" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="0">
-        <v>0</v>
-      </c>
-      <c r="C127" s="0">
-        <v>0</v>
-      </c>
       <c r="D127" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="0">
-        <v>0</v>
-      </c>
-      <c r="C128" s="0">
-        <v>0</v>
-      </c>
       <c r="D128" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="0">
-        <v>0</v>
-      </c>
-      <c r="C129" s="0">
-        <v>0</v>
-      </c>
       <c r="D129" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="0">
-        <v>0</v>
-      </c>
-      <c r="C130" s="0">
-        <v>0</v>
-      </c>
       <c r="D130" s="0">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2246,19 +1573,20 @@
       <c r="A131" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>1</v>
@@ -2269,7 +1597,7 @@
     </row>
     <row r="133">
       <c r="B133" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133" s="0">
         <f>SUM(D134:D143)</f>
@@ -2278,7 +1606,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B134" s="0">
         <v>0</v>
@@ -2287,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="D134" s="0">
-        <f ref="D134:D143" t="shared" si="9">C134*B134</f>
+        <f>B134*C134</f>
         <v>0</v>
       </c>
     </row>
@@ -2302,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="0">
-        <f t="shared" si="9"/>
+        <f ref="D135:D143" t="shared" si="10">B135*C135</f>
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2347,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2362,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2377,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2392,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2407,22 +1735,13 @@
         <v>0</v>
       </c>
       <c r="D142" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="0">
-        <v>0</v>
-      </c>
-      <c r="C143" s="0">
-        <v>0</v>
-      </c>
       <c r="D143" s="0">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2430,19 +1749,20 @@
       <c r="A144" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>1</v>
@@ -2453,7 +1773,7 @@
     </row>
     <row r="146">
       <c r="B146" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" s="0">
         <f>SUM(D147:D156)</f>
@@ -2462,7 +1782,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B147" s="0">
         <v>0</v>
@@ -2471,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="0">
-        <f ref="D147:D156" t="shared" si="10">C147*B147</f>
+        <f>B147*C147</f>
         <v>0</v>
       </c>
     </row>
@@ -2486,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="0">
-        <f t="shared" si="10"/>
+        <f ref="D148:D156" t="shared" si="11">B148*C148</f>
         <v>0</v>
       </c>
     </row>
@@ -2501,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2516,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2561,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2576,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D154" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2591,22 +1911,13 @@
         <v>0</v>
       </c>
       <c r="D155" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="0">
-        <v>0</v>
-      </c>
-      <c r="C156" s="0">
-        <v>0</v>
-      </c>
       <c r="D156" s="0">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2614,18 +1925,22 @@
       <c r="A157" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="0" t="s">
@@ -2634,7 +1949,7 @@
     </row>
     <row r="159">
       <c r="B159" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" s="0">
         <f>SUM(D160:D169)</f>
@@ -2643,7 +1958,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B160" s="0">
         <v>0</v>
@@ -2652,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="D160" s="0">
-        <f ref="D160:D169" t="shared" si="11">C160*B160</f>
+        <f>B160*C160</f>
         <v>0</v>
       </c>
     </row>
@@ -2667,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="0">
-        <f t="shared" si="11"/>
+        <f ref="D161:D169" t="shared" si="12">B161*C161</f>
         <v>0</v>
       </c>
     </row>
@@ -2682,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2697,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2712,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="D164" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2727,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2742,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2757,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="D167" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2772,22 +2087,13 @@
         <v>0</v>
       </c>
       <c r="D168" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="0">
-        <v>0</v>
-      </c>
-      <c r="C169" s="0">
-        <v>0</v>
-      </c>
       <c r="D169" s="0">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2795,22 +2101,23 @@
       <c r="A170" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>1</v>
@@ -2827,151 +2134,67 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B173" s="0">
-        <v>0</v>
-      </c>
-      <c r="C173" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D173" s="0">
-        <f ref="D173:D182" t="shared" si="12">C173*B173</f>
+        <f>B173*C173</f>
         <v>0</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="0">
-        <v>0</v>
-      </c>
-      <c r="C174" s="0">
-        <v>0</v>
-      </c>
       <c r="D174" s="0">
-        <f t="shared" si="12"/>
+        <f ref="D174:D182" t="shared" si="13">B174*C174</f>
         <v>0</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="0">
-        <v>0</v>
-      </c>
-      <c r="C175" s="0">
-        <v>0</v>
-      </c>
       <c r="D175" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="0">
-        <v>0</v>
-      </c>
-      <c r="C176" s="0">
-        <v>0</v>
-      </c>
       <c r="D176" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="0">
-        <v>0</v>
-      </c>
-      <c r="C177" s="0">
-        <v>0</v>
-      </c>
       <c r="D177" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="0">
-        <v>0</v>
-      </c>
-      <c r="C178" s="0">
-        <v>0</v>
-      </c>
       <c r="D178" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="0">
-        <v>0</v>
-      </c>
-      <c r="C179" s="0">
-        <v>0</v>
-      </c>
       <c r="D179" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="0">
-        <v>0</v>
-      </c>
-      <c r="C180" s="0">
-        <v>0</v>
-      </c>
       <c r="D180" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B181" s="0">
-        <v>0</v>
-      </c>
-      <c r="C181" s="0">
-        <v>0</v>
-      </c>
       <c r="D181" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="0">
-        <v>0</v>
-      </c>
-      <c r="C182" s="0">
-        <v>0</v>
-      </c>
       <c r="D182" s="0">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2979,24 +2202,33 @@
       <c r="A183" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="0" t="s">
-        <v>9</v>
+      <c r="B183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B184" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184" s="2">
-        <v>43975</v>
+      <c r="D184" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="B185" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="0">
         <f>SUM(D186:D195)</f>
@@ -3005,157 +2237,72 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B186" s="0">
-        <v>0</v>
-      </c>
-      <c r="C186" s="0">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D186" s="0">
-        <f ref="D186:D195" t="shared" si="13">C186*B186</f>
+        <f>B186*C186</f>
         <v>0</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="0">
-        <v>0</v>
-      </c>
-      <c r="C187" s="0">
-        <v>0</v>
-      </c>
       <c r="D187" s="0">
-        <f t="shared" si="13"/>
+        <f ref="D187:D195" t="shared" si="14">B187*C187</f>
         <v>0</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="0">
-        <v>0</v>
-      </c>
-      <c r="C188" s="0">
-        <v>0</v>
-      </c>
       <c r="D188" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="0">
-        <v>0</v>
-      </c>
-      <c r="C189" s="0">
-        <v>0</v>
-      </c>
       <c r="D189" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="0">
-        <v>0</v>
-      </c>
-      <c r="C190" s="0">
-        <v>0</v>
-      </c>
       <c r="D190" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B191" s="0">
-        <v>0</v>
-      </c>
-      <c r="C191" s="0">
-        <v>0</v>
-      </c>
       <c r="D191" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="0">
-        <v>0</v>
-      </c>
-      <c r="C192" s="0">
-        <v>0</v>
-      </c>
       <c r="D192" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="0">
-        <v>0</v>
-      </c>
-      <c r="C193" s="0">
-        <v>0</v>
-      </c>
       <c r="D193" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="0">
-        <v>0</v>
-      </c>
-      <c r="C194" s="0">
-        <v>0</v>
-      </c>
       <c r="D194" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="0">
-        <v>0</v>
-      </c>
-      <c r="C195" s="0">
-        <v>0</v>
-      </c>
       <c r="D195" s="0">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -735,7 +735,7 @@
     </row>
     <row r="29">
       <c r="B29" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="0">
         <f>SUM(D30:D39)</f>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="120">
       <c r="B120" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="0">
         <f>SUM(D121:D130)</f>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="133">
       <c r="B133" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D133" s="0">
         <f>SUM(D134:D143)</f>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="146">
       <c r="B146" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D146" s="0">
         <f>SUM(D147:D156)</f>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="185">
       <c r="B185" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D185" s="0">
         <f>SUM(D186:D195)</f>

--- a/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
+++ b/QuanLyKS/bin/Debug/CurrentCustomer.xlsx
@@ -735,7 +735,7 @@
     </row>
     <row r="29">
       <c r="B29" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="0">
         <f>SUM(D30:D39)</f>
